--- a/data/biolog_results/strain_ids.xlsx
+++ b/data/biolog_results/strain_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Biomedicine\lmurinus_gem\data\biolog_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E35D9F-7EBA-45FC-AA2D-E12C0A975641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB518EF-4055-4E45-9198-4571FC377EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>ID-number</t>
   </si>
@@ -205,6 +205,66 @@
   </si>
   <si>
     <t>Xylanibacter rodentium</t>
+  </si>
+  <si>
+    <t>Strain Short</t>
+  </si>
+  <si>
+    <t>A. muciniphila</t>
+  </si>
+  <si>
+    <t>B. caecimuris</t>
+  </si>
+  <si>
+    <t>B. pseudococcoides</t>
+  </si>
+  <si>
+    <t>E. clostridioformis</t>
+  </si>
+  <si>
+    <t>C. innocuum</t>
+  </si>
+  <si>
+    <t>E. faecalis</t>
+  </si>
+  <si>
+    <t>F. plautii</t>
+  </si>
+  <si>
+    <t>L. reuteri</t>
+  </si>
+  <si>
+    <t>M. intestinale</t>
+  </si>
+  <si>
+    <t>T. muris</t>
+  </si>
+  <si>
+    <t>C. ramosum</t>
+  </si>
+  <si>
+    <t>A. mucosicola</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>E. muris</t>
+  </si>
+  <si>
+    <t>F. butyricus</t>
+  </si>
+  <si>
+    <t>L. murinus</t>
+  </si>
+  <si>
+    <t>M. schaedleri</t>
+  </si>
+  <si>
+    <t>P. goldsteinii</t>
+  </si>
+  <si>
+    <t>X. rodentium</t>
   </si>
 </sst>
 </file>
@@ -536,18 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +619,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -568,8 +633,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -579,8 +647,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -590,8 +661,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -601,8 +675,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -612,8 +689,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -623,8 +703,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -634,8 +717,11 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -645,8 +731,11 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -656,8 +745,11 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -667,8 +759,11 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -678,8 +773,11 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -689,8 +787,11 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -700,8 +801,11 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -711,8 +815,11 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -722,8 +829,11 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -733,8 +843,11 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -744,8 +857,11 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -755,8 +871,11 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -765,6 +884,9 @@
       </c>
       <c r="C20" t="s">
         <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/biolog_results/strain_ids.xlsx
+++ b/data/biolog_results/strain_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Biomedicine\lmurinus_gem\data\biolog_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB518EF-4055-4E45-9198-4571FC377EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD0C25-B53F-4F92-ADD2-FE1D05A474DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs" sheetId="1" r:id="rId1"/>
@@ -39,171 +39,114 @@
     <t>23-32</t>
   </si>
   <si>
-    <t>DSM 26127</t>
-  </si>
-  <si>
     <t>Akkermansia muciniphila</t>
   </si>
   <si>
     <t>23-33</t>
   </si>
   <si>
-    <t>DSM 26085</t>
-  </si>
-  <si>
     <t>Bacteroides caecimuris</t>
   </si>
   <si>
     <t>23-34</t>
   </si>
   <si>
-    <t>DSM 26115</t>
-  </si>
-  <si>
     <t>Blautia pseudococcoides</t>
   </si>
   <si>
     <t>23-35</t>
   </si>
   <si>
-    <t>DSM 26114</t>
-  </si>
-  <si>
     <t>Enterocloster clostridioformis</t>
   </si>
   <si>
     <t>23-36</t>
   </si>
   <si>
-    <t>DSM 26113</t>
-  </si>
-  <si>
     <t>Clostridium innocuum</t>
   </si>
   <si>
     <t>23-37</t>
   </si>
   <si>
-    <t>DSM 32036</t>
-  </si>
-  <si>
     <t>Enterococcus faecalis</t>
   </si>
   <si>
     <t>23-38</t>
   </si>
   <si>
-    <t>DSM 26117</t>
-  </si>
-  <si>
     <t>Flavonifractor plautii</t>
   </si>
   <si>
     <t>23-39</t>
   </si>
   <si>
-    <t>DSM 32035</t>
-  </si>
-  <si>
     <t>Limosilactobacillus reuteri</t>
   </si>
   <si>
     <t>23-40</t>
   </si>
   <si>
-    <t>DSM 28989</t>
-  </si>
-  <si>
     <t>Muribaculum intestinale</t>
   </si>
   <si>
     <t>23-41</t>
   </si>
   <si>
-    <t>DSM 26109</t>
-  </si>
-  <si>
     <t>Turicimonas muris</t>
   </si>
   <si>
     <t>23-42</t>
   </si>
   <si>
-    <t>DSM 29357</t>
-  </si>
-  <si>
     <t>Clostridium ramosum</t>
   </si>
   <si>
     <t>23-43</t>
   </si>
   <si>
-    <t>DSM 19490</t>
-  </si>
-  <si>
     <t>Adlercreutzia mucosicola</t>
   </si>
   <si>
     <t>23-44</t>
   </si>
   <si>
-    <t>DSM 28618</t>
-  </si>
-  <si>
     <t>Escherichia coli</t>
   </si>
   <si>
     <t>23-45</t>
   </si>
   <si>
-    <t>DSM 28560</t>
-  </si>
-  <si>
     <t>Extibacter muris</t>
   </si>
   <si>
     <t>23-46</t>
   </si>
   <si>
-    <t>DSM 27579</t>
-  </si>
-  <si>
     <t>Flintibacter butyricus</t>
   </si>
   <si>
     <t>23-47</t>
   </si>
   <si>
-    <t>DSM 28683</t>
-  </si>
-  <si>
     <t>Ligilactobacillus murinus</t>
   </si>
   <si>
     <t>23-48</t>
   </si>
   <si>
-    <t>DSM 104751</t>
-  </si>
-  <si>
     <t>Mucispirillum schaedleri</t>
   </si>
   <si>
     <t>23-49</t>
   </si>
   <si>
-    <t>DSM 29187</t>
-  </si>
-  <si>
     <t>Parabacteroides goldsteinii</t>
   </si>
   <si>
     <t>23-50</t>
   </si>
   <si>
-    <t>DSM 105243</t>
-  </si>
-  <si>
     <t>Xylanibacter rodentium</t>
   </si>
   <si>
@@ -265,6 +208,63 @@
   </si>
   <si>
     <t>X. rodentium</t>
+  </si>
+  <si>
+    <t>DSM26127</t>
+  </si>
+  <si>
+    <t>DSM26085</t>
+  </si>
+  <si>
+    <t>DSM26115</t>
+  </si>
+  <si>
+    <t>DSM26114</t>
+  </si>
+  <si>
+    <t>DSM26113</t>
+  </si>
+  <si>
+    <t>DSM32036</t>
+  </si>
+  <si>
+    <t>DSM26117</t>
+  </si>
+  <si>
+    <t>DSM32035</t>
+  </si>
+  <si>
+    <t>DSM28989</t>
+  </si>
+  <si>
+    <t>DSM26109</t>
+  </si>
+  <si>
+    <t>DSM29357</t>
+  </si>
+  <si>
+    <t>DSM19490</t>
+  </si>
+  <si>
+    <t>DSM28618</t>
+  </si>
+  <si>
+    <t>DSM28560</t>
+  </si>
+  <si>
+    <t>DSM27579</t>
+  </si>
+  <si>
+    <t>DSM28683</t>
+  </si>
+  <si>
+    <t>DSM104751</t>
+  </si>
+  <si>
+    <t>DSM29187</t>
+  </si>
+  <si>
+    <t>DSM105243</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,265 +628,265 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
